--- a/data/trans_bre/P16A05-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A05-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A05-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A05-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,73</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,66</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,77</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>109,86%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>151,68%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>111,95%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,74; 5,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,47; 8,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,62; 10,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,5; 13,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,6; 153,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,64; 205,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>69,74; 256,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>57,4; 184,34</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>161,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>108,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>108,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,5%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,23; 3,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,28; 4,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,07; 4,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,14; 3,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>62,43; 337,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,02; 197,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>53,96; 187,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,18; 110,99</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,54%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,07%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,2%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,57; 2,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,27; 3,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,4; 1,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 2,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,87; 153,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,04; 176,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,86; 109,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,5; 145,6</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>106,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>112,23%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>118,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,97%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,76; 3,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,64; 4,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,03; 5,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,75; 5,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,07; 164,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>65,67; 171,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>75,54; 170,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>55,36; 131,86</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A05-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A05-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,77</t>
+          <t>9,57</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>111,95%</t>
+          <t>113,21%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,5; 13,1</t>
+          <t>6,4; 12,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>57,4; 184,34</t>
+          <t>59,0; 182,71</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>61,5%</t>
+          <t>65,62%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,85</t>
+          <t>0,64; 3,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,18; 110,99</t>
+          <t>19,61; 144,45</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>35,2%</t>
+          <t>32,96%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,43</t>
+          <t>-0,77; 2,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-23,5; 145,6</t>
+          <t>-24,51; 141,21</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>90,97%</t>
+          <t>93,71%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,75; 5,2</t>
+          <t>2,27; 5,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>55,36; 131,86</t>
+          <t>51,15; 155,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A05-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A05-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,74; 5,61</t>
+          <t>1,67; 5,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,47; 8,11</t>
+          <t>3,24; 7,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,62; 10,33</t>
+          <t>4,82; 10,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,4; 12,62</t>
+          <t>6,73; 13,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,6; 153,05</t>
+          <t>29,36; 146,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>49,64; 205,11</t>
+          <t>46,1; 194,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>69,74; 256,04</t>
+          <t>73,68; 266,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>59,0; 182,71</t>
+          <t>60,4; 189,85</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,59</t>
+          <t>1,15; 3,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,01</t>
+          <t>1,42; 3,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 4,73</t>
+          <t>2,03; 4,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,96</t>
+          <t>0,49; 4,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>62,43; 337,79</t>
+          <t>59,15; 311,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,02; 197,98</t>
+          <t>47,13; 202,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>53,96; 187,41</t>
+          <t>52,57; 179,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,61; 144,45</t>
+          <t>12,96; 146,48</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 2,32</t>
+          <t>-1,66; 2,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 3,08</t>
+          <t>-2,3; 2,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 1,85</t>
+          <t>-2,45; 1,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 2,4</t>
+          <t>-0,78; 2,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-52,87; 153,28</t>
+          <t>-53,58; 147,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-52,04; 176,79</t>
+          <t>-50,04; 152,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-61,86; 109,63</t>
+          <t>-62,89; 94,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,51; 141,21</t>
+          <t>-24,37; 148,48</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,76; 3,63</t>
+          <t>1,78; 3,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,64; 4,92</t>
+          <t>2,7; 4,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,03; 5,23</t>
+          <t>2,97; 5,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,27; 5,2</t>
+          <t>2,28; 5,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>58,07; 164,05</t>
+          <t>57,93; 164,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>65,67; 171,49</t>
+          <t>66,27; 168,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>75,54; 170,87</t>
+          <t>75,25; 171,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>51,15; 155,72</t>
+          <t>53,23; 158,04</t>
         </is>
       </c>
     </row>
